--- a/Documentation/Planning/_Milestones/Milestones.xlsx
+++ b/Documentation/Planning/_Milestones/Milestones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -28,21 +28,24 @@
     <t>Continuation Criteria</t>
   </si>
   <si>
+    <t xml:space="preserve">Prototype A: Basic Combat possible. Player can run around with draft animation and attack with draft animation. The attack will interact with the enemy, who will be stationary and will play draft animation upon health depletion. Player will run around a very basic terrain, ie. mostly flat with some boundaries. A sound effect will play when player attacks and enemy dies. No UI required. No Networking required. No Main Menu required. No Respawn required. No Equiment or Skill system required.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype C: </t>
+  </si>
+  <si>
     <t>- 2 Draft Models with Basic textures (Enemy and Player)
 - 3 Animations (Walk, Attack, Death)
 - Basic Input System (Player Movement, Player Basic Attack)
 - Basic Stats System (Enemy Health, Player Attributes)
 - Basic Combat System (Player can damage Enemy with attack)
-- Basic Terrain (Player can move around and hit boundaries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype A: Basic Combat possible. Player can run around with draft animation and attack with draft animation. The attack will interact with the enemy, who will be stationary and will play draft animation upon health depletion. Player will run around a very basic terrain, ie. mostly flat with some boundaries. A sound effect will play when player attacks and enemy dies. No UI required. No Networking required. No Main Menu required. No Respawn required. No Equiment or Skill system required.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype C: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype B: Player can attack enemies using a basic skill system. Player can examine a predetermined equipement set. Player can pickup an item off the ground.  Enemies move and attack player. Basic UI required showing health, skills, and equipment. No Networking required. No Main Menu required. No Respawn required. </t>
+- Basic Terrain (Player can move around and hit boundaries)
+- Basic Sound Effect (Plays sound when player's attack hits enemy)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype B: Player can attack enemies using a basic skill system. Player can examine a predetermined equipement set. Player can pickup an item off the ground.  Enemies move and attack player. Basic UI required showing health, skills, and equipment. Basic damage calculation (enemies with greater armor will take more damage, and maybe critical hits??) No Networking required. No Main Menu required. No Respawn required. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">- An basic Animation for each skill
@@ -52,18 +55,20 @@
 - Equipment and Item inteface
 - Combat UI
 - Input interface to interact with item on ground
+- Damage Calculation
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +77,7 @@
       <u/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,8 +86,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,27 +135,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="18"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="26"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -159,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,31 +454,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -476,7 +486,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,159 +497,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" ht="198">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="148.5">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
   </sheetData>
@@ -647,6 +657,7 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A23:C24"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Planning/_Milestones/Milestones.xlsx
+++ b/Documentation/Planning/_Milestones/Milestones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Milestones</t>
   </si>
@@ -29,23 +29,13 @@
   </si>
   <si>
     <t xml:space="preserve">Prototype A: Basic Combat possible. Player can run around with draft animation and attack with draft animation. The attack will interact with the enemy, who will be stationary and will play draft animation upon health depletion. Player will run around a very basic terrain, ie. mostly flat with some boundaries. A sound effect will play when player attacks and enemy dies. No UI required. No Networking required. No Main Menu required. No Respawn required. No Equiment or Skill system required.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototype C: </t>
-  </si>
-  <si>
-    <t>- 2 Draft Models with Basic textures (Enemy and Player)
-- 3 Animations (Walk, Attack, Death)
-- Basic Input System (Player Movement, Player Basic Attack)
-- Basic Stats System (Enemy Health, Player Attributes)
-- Basic Combat System (Player can damage Enemy with attack)
-- Basic Terrain (Player can move around and hit boundaries)
-- Basic Sound Effect (Plays sound when player's attack hits enemy)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Prototype B: Player can attack enemies using a basic skill system. Player can examine a predetermined equipement set. Player can pickup an item off the ground.  Enemies move and attack player. Basic UI required showing health, skills, and equipment. Basic damage calculation (enemies with greater armor will take more damage, and maybe critical hits??) No Networking required. No Main Menu required. No Respawn required. </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMO</t>
   </si>
   <si>
     <t xml:space="preserve">- An basic Animation for each skill
@@ -57,18 +47,107 @@
 - Input interface to interact with item on ground
 - Damage Calculation
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype C
+Focus: Terrain, Basic Town and NPC Mechanics
+Feature Description:
+- Working Minimap
+- Improved Terrain detail, ie. Brush, Trees
+- Basic Town (For looks)
+- Static NPC Character Shopkeeper
+- Moving NPC Character
+- Proximity-based NPC chatter
+Not Required In Prototype:
+- No Networking required.
+- No Main Menu required.
+- No Respawn required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype D
+Focus: Zone Integration and Screen Transitions, Enemy Extensions
+Feature Description:
+- Main Menu that transitions into playable state.
+- Transition between 2 'zones'
+- Player death and Respawn
+- Multiple Enemy AI types, both Behavior and Model
+- Enemys can drop 'items' or 'components'
+- Enemy Health and name are displayed above the Model
+Not Required In Prototype:
+- No Networking required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype E
+Focus: Character Customization
+Feature Desciption:
+- Customizable physical features on Prototype character 
+- Equipment System
+- Equipment based appearance
+Not Required In Prototype:
+- No Networking required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype F
+Focus: Quest System and Story Progession
+Feature Desciption:
+- 
+Not Required In Prototype:
+- No Networking required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype G
+Focus: Dynamic Event System and World Map
+Feature Desciption:
+- Enemy AI with Purpose based on Dynamic Event
+- World Map with Dynamic Event System markers
+Not Required In Prototype:
+- No Networking required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Prototype H
+Focus: Details on Implemented Features
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation: Demo A
+Feature Description:
+- Single Character Playable
+- Customizable Character
+- Working Combat System (Working Skill Trees, Working Equipment Sets)
+- Simple Quests and Story Progression
+- Basic Dynamic Event System
+- 1 Town with NPC Storekeeper and NPC Quest Givers
+- Multiple Enemy Types to Fight
+- Can pickup drops from Enemies
+- 2 Zones
+- World Map View with Dynamic Event System Integration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 2 Draft Models with Basic textures (Enemy and Player)
+- 3 Animations (Walk, Attack, Death)
+- Basic Input System (Player Movement, Player Basic Attack)
+- Basic Stats System (Enemy Health, Player Attributes)
+- Basic Combat System (Player can damage Enemy with attack)
+- Basic Terrain (Player can move around and hit boundaries)
+- Basic Sound Effect (Plays sound when player's attack hits enemy)
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +156,7 @@
       <u/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,13 +165,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -106,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,11 +193,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,9 +247,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -171,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +351,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,18 +562,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
@@ -497,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="198">
+    <row r="5" spans="1:6" ht="210">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -505,58 +613,82 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="148.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="135.75" thickBot="1">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="240.75" thickBot="1">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="225.75" thickBot="1">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="165.75" thickBot="1">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="135.75" thickBot="1">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="150.75" thickBot="1">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="225.75" thickBot="1">
+      <c r="A13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>

--- a/Documentation/Planning/_Milestones/Milestones.xlsx
+++ b/Documentation/Planning/_Milestones/Milestones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -142,12 +142,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +156,7 @@
       <u/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,13 +165,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -241,27 +241,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="26"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,10 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,26 +560,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -604,8 +603,9 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="210">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="214.5">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -615,8 +615,9 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="135.75" thickBot="1">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="149.25" thickBot="1">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -627,68 +628,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="240.75" thickBot="1">
-      <c r="A7" s="12">
+    <row r="7" spans="1:6" ht="264.75" thickBot="1">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="225.75" thickBot="1">
-      <c r="A8" s="12">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="248.25" thickBot="1">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="165.75" thickBot="1">
-      <c r="A9" s="12">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="182.25" thickBot="1">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="135.75" thickBot="1">
-      <c r="A10" s="12">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="149.25" thickBot="1">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="150.75" thickBot="1">
-      <c r="A11" s="12">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="165.75" thickBot="1">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A12" s="12">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="225.75" thickBot="1">
-      <c r="A13" s="12" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="248.25" thickBot="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -736,14 +737,14 @@
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6"/>
